--- a/insuranceApp/backend/datas/重疾险.xlsx
+++ b/insuranceApp/backend/datas/重疾险.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\desktop\数据\最终数据集\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F905DD-3E81-460C-809C-344D28307D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC33CF07-8135-4B32-BA45-53BA24DF1038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6400" yWindow="120" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Products18" sheetId="1" r:id="rId1"/>
@@ -222,9 +222,6 @@
     <t>男</t>
   </si>
   <si>
-    <t>产品名称（计划/方案名称）</t>
-  </si>
-  <si>
     <t>承保公司名称（保险公司）</t>
   </si>
   <si>
@@ -471,6 +468,10 @@
   </si>
   <si>
     <t>恶性肿瘤多次赔付 是否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -856,9 +857,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V44" sqref="V44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -891,10 +892,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="C1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D1" t="s">
         <v>17</v>
@@ -956,10 +957,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D2" t="s">
         <v>35</v>
@@ -1021,10 +1022,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D3" t="s">
         <v>42</v>
@@ -1086,10 +1087,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D4" t="s">
         <v>43</v>
@@ -1151,10 +1152,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D5">
         <v>23</v>
@@ -1216,10 +1217,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D6">
         <v>90</v>
@@ -1281,10 +1282,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D7">
         <v>7.6999999999999999E-2</v>
@@ -1346,10 +1347,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D8">
         <v>17</v>
@@ -1411,10 +1412,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D9">
         <v>50</v>
@@ -1473,10 +1474,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D10">
         <v>0.4</v>
@@ -1532,10 +1533,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D11">
         <v>0.2</v>
@@ -1591,10 +1592,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -1647,10 +1648,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -1703,10 +1704,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -1759,10 +1760,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1824,10 +1825,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1838,13 +1839,13 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1906,10 +1907,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I18" t="s">
         <v>50</v>
@@ -1941,13 +1942,13 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" t="s">
         <v>77</v>
       </c>
-      <c r="B19" t="s">
-        <v>78</v>
-      </c>
       <c r="C19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O19">
         <v>1</v>
@@ -1958,13 +1959,13 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" t="s">
         <v>79</v>
       </c>
-      <c r="B20" t="s">
-        <v>80</v>
-      </c>
       <c r="C20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1978,13 +1979,13 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" t="s">
         <v>81</v>
       </c>
-      <c r="B21" t="s">
-        <v>82</v>
-      </c>
       <c r="C21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2031,13 +2032,13 @@
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F22">
         <v>0.3</v>
@@ -2051,13 +2052,13 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" t="s">
         <v>84</v>
       </c>
-      <c r="B23" t="s">
-        <v>85</v>
-      </c>
       <c r="C23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -2068,13 +2069,13 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" t="s">
         <v>86</v>
       </c>
-      <c r="B24" t="s">
-        <v>87</v>
-      </c>
       <c r="C24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -2088,13 +2089,13 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" t="s">
         <v>88</v>
       </c>
-      <c r="B25" t="s">
-        <v>89</v>
-      </c>
       <c r="C25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -2111,13 +2112,13 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" t="s">
         <v>90</v>
       </c>
-      <c r="B26" t="s">
-        <v>91</v>
-      </c>
       <c r="C26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -2140,13 +2141,13 @@
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" t="s">
         <v>92</v>
       </c>
-      <c r="B27" t="s">
-        <v>93</v>
-      </c>
       <c r="C27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2154,13 +2155,13 @@
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2183,13 +2184,13 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" t="s">
         <v>95</v>
       </c>
-      <c r="B29" t="s">
-        <v>96</v>
-      </c>
       <c r="C29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -2197,13 +2198,13 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -2214,13 +2215,13 @@
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" t="s">
         <v>98</v>
       </c>
-      <c r="B31" t="s">
-        <v>99</v>
-      </c>
       <c r="C31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -2228,13 +2229,13 @@
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" t="s">
         <v>100</v>
       </c>
-      <c r="B32" t="s">
-        <v>101</v>
-      </c>
       <c r="C32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q32" t="s">
         <v>59</v>
@@ -2242,13 +2243,13 @@
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" t="s">
         <v>102</v>
       </c>
-      <c r="B33" t="s">
-        <v>103</v>
-      </c>
       <c r="C33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F33" t="s">
         <v>60</v>
@@ -2256,13 +2257,13 @@
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" t="s">
         <v>106</v>
       </c>
-      <c r="B34" t="s">
-        <v>107</v>
-      </c>
       <c r="C34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -2279,13 +2280,13 @@
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" t="s">
         <v>108</v>
       </c>
-      <c r="B35" t="s">
-        <v>109</v>
-      </c>
       <c r="C35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -2308,13 +2309,13 @@
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" t="s">
         <v>112</v>
       </c>
-      <c r="B36" t="s">
-        <v>113</v>
-      </c>
       <c r="C36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -2331,13 +2332,13 @@
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F37">
         <v>0.3</v>
@@ -2351,13 +2352,13 @@
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -2371,13 +2372,13 @@
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C39" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D39">
         <v>44</v>
@@ -2436,13 +2437,13 @@
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D40">
         <v>50</v>
@@ -2501,13 +2502,13 @@
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K41" t="s">
         <v>61</v>
@@ -2524,13 +2525,13 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K42" t="s">
         <v>63</v>
@@ -2548,6 +2549,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>